--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H2">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I2">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J2">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.57110033333333</v>
+        <v>9.084137666666667</v>
       </c>
       <c r="N2">
-        <v>88.713301</v>
+        <v>27.252413</v>
       </c>
       <c r="O2">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="P2">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="Q2">
-        <v>5442.936293327297</v>
+        <v>580.5779787554345</v>
       </c>
       <c r="R2">
-        <v>48986.42663994568</v>
+        <v>5225.201808798911</v>
       </c>
       <c r="S2">
-        <v>0.3458070147630837</v>
+        <v>0.1124935054580244</v>
       </c>
       <c r="T2">
-        <v>0.3458070147630838</v>
+        <v>0.1124935054580244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H3">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I3">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J3">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>36.541011</v>
       </c>
       <c r="O3">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="P3">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="Q3">
-        <v>2241.945601446755</v>
+        <v>778.4597388884464</v>
       </c>
       <c r="R3">
-        <v>20177.51041302079</v>
+        <v>7006.137649996017</v>
       </c>
       <c r="S3">
-        <v>0.1424379184169351</v>
+        <v>0.1508353194401623</v>
       </c>
       <c r="T3">
-        <v>0.1424379184169351</v>
+        <v>0.1508353194401623</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H4">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I4">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J4">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.92204833333333</v>
+        <v>11.58507333333333</v>
       </c>
       <c r="N4">
-        <v>41.76614499999999</v>
+        <v>34.75522</v>
       </c>
       <c r="O4">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="P4">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="Q4">
-        <v>2562.529675824715</v>
+        <v>740.4157341517044</v>
       </c>
       <c r="R4">
-        <v>23062.76708242244</v>
+        <v>6663.741607365339</v>
       </c>
       <c r="S4">
-        <v>0.1628056419703297</v>
+        <v>0.1434638661451681</v>
       </c>
       <c r="T4">
-        <v>0.1628056419703297</v>
+        <v>0.1434638661451682</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J5">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.57110033333333</v>
+        <v>9.084137666666667</v>
       </c>
       <c r="N5">
-        <v>88.713301</v>
+        <v>27.252413</v>
       </c>
       <c r="O5">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="P5">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="Q5">
-        <v>1698.6645448878</v>
+        <v>521.8237536414</v>
       </c>
       <c r="R5">
-        <v>15287.9809039902</v>
+        <v>4696.4137827726</v>
       </c>
       <c r="S5">
-        <v>0.1079215489021378</v>
+        <v>0.1011092143112673</v>
       </c>
       <c r="T5">
-        <v>0.1079215489021378</v>
+        <v>0.1011092143112673</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>172.3302</v>
       </c>
       <c r="I6">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J6">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>36.541011</v>
       </c>
       <c r="O6">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="P6">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="Q6">
         <v>699.6799704258001</v>
       </c>
       <c r="R6">
-        <v>6297.119733832202</v>
+        <v>6297.119733832201</v>
       </c>
       <c r="S6">
-        <v>0.04445288881280671</v>
+        <v>0.1355708543074471</v>
       </c>
       <c r="T6">
-        <v>0.04445288881280671</v>
+        <v>0.1355708543074471</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>172.3302</v>
       </c>
       <c r="I7">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J7">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.92204833333333</v>
+        <v>11.58507333333333</v>
       </c>
       <c r="N7">
-        <v>41.76614499999999</v>
+        <v>34.75522</v>
       </c>
       <c r="O7">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="P7">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="Q7">
-        <v>799.7297912309999</v>
+        <v>665.486001516</v>
       </c>
       <c r="R7">
-        <v>7197.568121079</v>
+        <v>5989.374013644</v>
       </c>
       <c r="S7">
-        <v>0.05080937141625783</v>
+        <v>0.1289453887043046</v>
       </c>
       <c r="T7">
-        <v>0.05080937141625783</v>
+        <v>0.1289453887043046</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H8">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I8">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J8">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.57110033333333</v>
+        <v>9.084137666666667</v>
       </c>
       <c r="N8">
-        <v>88.713301</v>
+        <v>27.252413</v>
       </c>
       <c r="O8">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="P8">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="Q8">
-        <v>1218.634911627145</v>
+        <v>324.8067488232917</v>
       </c>
       <c r="R8">
-        <v>10967.7142046443</v>
+        <v>2923.260739409625</v>
       </c>
       <c r="S8">
-        <v>0.07742374302497033</v>
+        <v>0.06293495638584641</v>
       </c>
       <c r="T8">
-        <v>0.07742374302497035</v>
+        <v>0.06293495638584641</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H9">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I9">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J9">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>36.541011</v>
       </c>
       <c r="O9">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="P9">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="Q9">
-        <v>501.9557519424458</v>
+        <v>435.5125170613751</v>
       </c>
       <c r="R9">
-        <v>4517.601767482012</v>
+        <v>3919.612653552375</v>
       </c>
       <c r="S9">
-        <v>0.03189084177508641</v>
+        <v>0.08438544262409843</v>
       </c>
       <c r="T9">
-        <v>0.03189084177508641</v>
+        <v>0.08438544262409843</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H10">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I10">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J10">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.92204833333333</v>
+        <v>11.58507333333333</v>
       </c>
       <c r="N10">
-        <v>41.76614499999999</v>
+        <v>34.75522</v>
       </c>
       <c r="O10">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="P10">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="Q10">
-        <v>573.7322571401272</v>
+        <v>414.2286414358334</v>
       </c>
       <c r="R10">
-        <v>5163.590314261145</v>
+        <v>3728.0577729225</v>
       </c>
       <c r="S10">
-        <v>0.03645103091839238</v>
+        <v>0.08026145262368131</v>
       </c>
       <c r="T10">
-        <v>0.03645103091839239</v>
+        <v>0.08026145262368133</v>
       </c>
     </row>
   </sheetData>
